--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1920030.511942372</v>
+        <v>1917611.844394793</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10694090.72290855</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9800201.546103114</v>
+        <v>9803380.647340609</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805275</v>
+        <v>332.2110827772204</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>247.5329253181162</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413948</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>19.4945257923475</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>324.7263570002453</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,7 +1667,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201537</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.8169275348802</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
-        <v>296.3559776424072</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D17" t="n">
-        <v>285.7661274920826</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.0134559436614</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F17" t="n">
-        <v>337.9591316131111</v>
+        <v>268.9014443097205</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0048115248531</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>225.6908502587201</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96361544584036</v>
       </c>
       <c r="T17" t="n">
-        <v>135.0010560110198</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U17" t="n">
-        <v>78.43516443834798</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W17" t="n">
-        <v>280.3240545888127</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X17" t="n">
-        <v>300.8141865498687</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>317.3210245274532</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.9150660533369</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>98.32990697002748</v>
+        <v>99.02267475629239</v>
       </c>
       <c r="D19" t="n">
-        <v>79.698558889612</v>
+        <v>80.39132667587691</v>
       </c>
       <c r="E19" t="n">
-        <v>77.51704851796882</v>
+        <v>78.20981630423373</v>
       </c>
       <c r="F19" t="n">
-        <v>76.50413389433089</v>
+        <v>77.1969016805958</v>
       </c>
       <c r="G19" t="n">
-        <v>97.10889413042787</v>
+        <v>97.80166191669278</v>
       </c>
       <c r="H19" t="n">
-        <v>75.83810078572043</v>
+        <v>76.53086857198534</v>
       </c>
       <c r="I19" t="n">
-        <v>27.43550628123774</v>
+        <v>28.12827406750264</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.01523854144698</v>
+        <v>20.70800632771187</v>
       </c>
       <c r="S19" t="n">
-        <v>120.8521112028415</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>150.6320351475688</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
-        <v>217.2949240770125</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.2207291952276</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>217.6060842079906</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
-        <v>156.7927412604368</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.6677392234944</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.8169275348803</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
-        <v>296.3559776424073</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D20" t="n">
-        <v>285.7661274920827</v>
+        <v>216.7084401886923</v>
       </c>
       <c r="E20" t="n">
-        <v>313.0134559436615</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G20" t="n">
-        <v>342.0048115248532</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>225.6908502587202</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.27084765957554</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T20" t="n">
-        <v>70.21090223106633</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U20" t="n">
-        <v>182.0782578303017</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V20" t="n">
-        <v>258.8353443415346</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W20" t="n">
-        <v>280.3240545888127</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X20" t="n">
-        <v>300.8141865498687</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.3210245274533</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.915066053337</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>98.32990697002754</v>
+        <v>99.02267475629239</v>
       </c>
       <c r="D22" t="n">
-        <v>79.69855888961206</v>
+        <v>80.39132667587691</v>
       </c>
       <c r="E22" t="n">
-        <v>77.51704851796887</v>
+        <v>78.20981630423373</v>
       </c>
       <c r="F22" t="n">
-        <v>76.50413389433095</v>
+        <v>77.1969016805958</v>
       </c>
       <c r="G22" t="n">
-        <v>97.10889413042793</v>
+        <v>97.80166191669278</v>
       </c>
       <c r="H22" t="n">
-        <v>75.83810078572048</v>
+        <v>76.53086857198534</v>
       </c>
       <c r="I22" t="n">
-        <v>27.4355062812378</v>
+        <v>28.12827406750265</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.01523854144703</v>
+        <v>20.70800632771189</v>
       </c>
       <c r="S22" t="n">
-        <v>120.8521112028416</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T22" t="n">
-        <v>150.6320351475689</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
-        <v>217.2949240770126</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V22" t="n">
-        <v>183.2207291952277</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W22" t="n">
-        <v>217.6060842079907</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
-        <v>156.7927412604369</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.6677392234945</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.8169275348803</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C23" t="n">
-        <v>296.3559776424073</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D23" t="n">
-        <v>285.7661274920827</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E23" t="n">
-        <v>313.0134559436615</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F23" t="n">
-        <v>337.9591316131112</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G23" t="n">
-        <v>342.0048115248532</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H23" t="n">
-        <v>225.6908502587202</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.27084765957557</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T23" t="n">
-        <v>135.0010560110199</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U23" t="n">
-        <v>182.0782578303017</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V23" t="n">
-        <v>258.8353443415347</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W23" t="n">
-        <v>280.3240545888128</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X23" t="n">
-        <v>300.8141865498688</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.3210245274533</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247738</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.915066053337</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C25" t="n">
-        <v>98.32990697002758</v>
+        <v>99.02267475629239</v>
       </c>
       <c r="D25" t="n">
-        <v>79.6985588896121</v>
+        <v>80.39132667587691</v>
       </c>
       <c r="E25" t="n">
-        <v>77.51704851796892</v>
+        <v>78.20981630423373</v>
       </c>
       <c r="F25" t="n">
-        <v>76.50413389433099</v>
+        <v>77.1969016805958</v>
       </c>
       <c r="G25" t="n">
-        <v>97.10889413042797</v>
+        <v>97.80166191669278</v>
       </c>
       <c r="H25" t="n">
-        <v>75.83810078572053</v>
+        <v>76.53086857198534</v>
       </c>
       <c r="I25" t="n">
-        <v>27.43550628123784</v>
+        <v>28.12827406750265</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.01523854144708</v>
+        <v>20.70800632771189</v>
       </c>
       <c r="S25" t="n">
-        <v>120.8521112028417</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T25" t="n">
-        <v>150.632035147569</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U25" t="n">
-        <v>217.2949240770126</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V25" t="n">
-        <v>183.2207291952278</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W25" t="n">
-        <v>217.6060842079908</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X25" t="n">
-        <v>156.7927412604369</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.6677392234946</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348607</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958324</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958319</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3317,7 +3317,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>119.3005938533743</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>47.07029468621589</v>
@@ -3478,10 +3478,10 @@
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>239.4866237999589</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
         <v>188.8382781084861</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>98.69583361727732</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953171</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>304.6842736982939</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C41" t="n">
-        <v>287.2233238058208</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>276.6334736554962</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>303.8808021070751</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F41" t="n">
-        <v>328.8264777765247</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G41" t="n">
-        <v>332.8721576882667</v>
+        <v>293.0767011151003</v>
       </c>
       <c r="H41" t="n">
-        <v>145.7498625579824</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.22916845492065</v>
       </c>
       <c r="T41" t="n">
-        <v>125.8684021744334</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>249.7026905049482</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
-        <v>271.1914007522263</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>291.6815327132823</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>308.1883706908669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.7824122167506</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>89.19725313344112</v>
+        <v>95.28822776537265</v>
       </c>
       <c r="D43" t="n">
-        <v>70.56590505302565</v>
+        <v>76.65687968495718</v>
       </c>
       <c r="E43" t="n">
-        <v>68.38439468138246</v>
+        <v>74.47536931331399</v>
       </c>
       <c r="F43" t="n">
-        <v>67.37148005774453</v>
+        <v>73.46245468967606</v>
       </c>
       <c r="G43" t="n">
-        <v>87.97624029384151</v>
+        <v>94.06721492577304</v>
       </c>
       <c r="H43" t="n">
-        <v>66.70544694913407</v>
+        <v>72.7964215810656</v>
       </c>
       <c r="I43" t="n">
-        <v>18.30285244465139</v>
+        <v>24.39382707658292</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.88258470486062</v>
+        <v>16.97355933679215</v>
       </c>
       <c r="S43" t="n">
-        <v>111.7194573662552</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T43" t="n">
-        <v>192.3180636922422</v>
+        <v>147.590355942914</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>245.6659011078993</v>
       </c>
       <c r="V43" t="n">
-        <v>174.0880753586413</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
-        <v>208.4734303714043</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
-        <v>147.6600874238504</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.5350853869081</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.0824805439605</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C44" t="n">
-        <v>292.6215306514875</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D44" t="n">
-        <v>282.0316805011629</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.2790089527417</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.2246846221914</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G44" t="n">
-        <v>338.2703645339334</v>
+        <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>172.4551712651751</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.22916845492063</v>
       </c>
       <c r="T44" t="n">
-        <v>131.2666090201001</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
-        <v>86.36958725564875</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>255.1008973506148</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W44" t="n">
-        <v>276.589607597893</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
-        <v>297.079739558949</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>313.5865775365335</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.1806190624172</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>94.59545997910776</v>
+        <v>95.28822776537262</v>
       </c>
       <c r="D46" t="n">
-        <v>75.96411189869228</v>
+        <v>76.65687968495715</v>
       </c>
       <c r="E46" t="n">
-        <v>73.7826015270491</v>
+        <v>74.47536931331396</v>
       </c>
       <c r="F46" t="n">
-        <v>72.76968690341117</v>
+        <v>73.46245468967604</v>
       </c>
       <c r="G46" t="n">
-        <v>93.37444713950815</v>
+        <v>94.06721492577302</v>
       </c>
       <c r="H46" t="n">
-        <v>72.10365379480071</v>
+        <v>72.79642158106557</v>
       </c>
       <c r="I46" t="n">
-        <v>23.70105929031802</v>
+        <v>24.39382707658289</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.28079155052725</v>
+        <v>16.97355933679212</v>
       </c>
       <c r="S46" t="n">
-        <v>117.1176642119218</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T46" t="n">
-        <v>189.3945289724291</v>
+        <v>179.0030121784562</v>
       </c>
       <c r="U46" t="n">
-        <v>213.5604770860928</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V46" t="n">
-        <v>179.4862822043079</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
-        <v>213.8716372170709</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
-        <v>153.0582942695171</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.9332922325747</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1734.920347504027</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C11" t="n">
-        <v>1407.954729324146</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.954729324146</v>
+        <v>990.5514538055343</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486433</v>
+        <v>652.2128341553633</v>
       </c>
       <c r="F11" t="n">
-        <v>695.174369457357</v>
+        <v>652.2128341553633</v>
       </c>
       <c r="G11" t="n">
-        <v>322.098818062885</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
@@ -5048,43 +5048,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3161.624972753924</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2950.091394788292</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2661.025406205253</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2410.992148308166</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2079.523288807617</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>2079.523288807617</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811068</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999798</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387287</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332731</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601582</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392777</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180885</v>
+        <v>759.4662498052937</v>
       </c>
       <c r="C13" t="n">
-        <v>670.6961049507129</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989084</v>
+        <v>535.3126933611977</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770465</v>
+        <v>434.849232726878</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396674</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749178</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783887</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020815</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.552954957889</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353499</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2189.058833213835</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>2009.289116543892</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.183148430067</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.495558984711</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.075287708282</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570796</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.2869551877969</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1640.517726580262</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.004842587924</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1008.188776929246</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>680.1823557168772</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921007</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580262</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052945</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337114</v>
@@ -5455,16 +5455,16 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179563</v>
@@ -5473,13 +5473,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1885.492272467371</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C17" t="n">
-        <v>1586.142800101303</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D17" t="n">
-        <v>1297.490146068896</v>
+        <v>883.6750316691862</v>
       </c>
       <c r="E17" t="n">
-        <v>981.3149380449959</v>
+        <v>566.8000582046141</v>
       </c>
       <c r="F17" t="n">
-        <v>639.9420778297321</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G17" t="n">
-        <v>294.4826722490724</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,25 +5513,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3189.241118567737</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>3110.013679741123</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>3110.013679741123</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W17" t="n">
-        <v>2826.858069045353</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X17" t="n">
-        <v>2523.005355358617</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>2202.479067957149</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>604.3223684214008</v>
+        <v>609.2207265061022</v>
       </c>
       <c r="C19" t="n">
-        <v>504.9992300678377</v>
+        <v>509.1978227118675</v>
       </c>
       <c r="D19" t="n">
-        <v>424.4956352298458</v>
+        <v>427.994462433204</v>
       </c>
       <c r="E19" t="n">
-        <v>346.1955862217965</v>
+        <v>348.994647984483</v>
       </c>
       <c r="F19" t="n">
-        <v>268.91868329823</v>
+        <v>271.0179796202448</v>
       </c>
       <c r="G19" t="n">
-        <v>170.8288912472927</v>
+        <v>172.2284221286359</v>
       </c>
       <c r="H19" t="n">
-        <v>94.22474903949427</v>
+        <v>94.92451448016588</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5674,49 +5674,49 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1867.112747934903</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1944.723044087418</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R19" t="n">
-        <v>1924.505631419289</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S19" t="n">
-        <v>1802.432791820459</v>
+        <v>1812.229507989862</v>
       </c>
       <c r="T19" t="n">
-        <v>1650.279220964329</v>
+        <v>1659.37617169306</v>
       </c>
       <c r="U19" t="n">
-        <v>1430.789398664317</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V19" t="n">
-        <v>1245.717955032773</v>
+        <v>1253.415374880161</v>
       </c>
       <c r="W19" t="n">
-        <v>1025.913829570157</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>867.5373232464831</v>
+        <v>873.8352122125277</v>
       </c>
       <c r="Y19" t="n">
-        <v>716.3577886772968</v>
+        <v>721.9559122026698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1544.119412252107</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C20" t="n">
-        <v>1244.76993988604</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D20" t="n">
-        <v>956.1172858536329</v>
+        <v>954.1300368102515</v>
       </c>
       <c r="E20" t="n">
-        <v>639.9420778297322</v>
+        <v>637.2550633456794</v>
       </c>
       <c r="F20" t="n">
-        <v>639.9420778297322</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G20" t="n">
-        <v>294.4826722490725</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810562</v>
@@ -5759,7 +5759,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.92819771061</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
-        <v>3214.008094446907</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3030.090662295087</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2768.64081952586</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W20" t="n">
-        <v>2485.48520883009</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X20" t="n">
-        <v>2181.632495143353</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1861.106207741886</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>604.3223684214013</v>
+        <v>609.2207265061022</v>
       </c>
       <c r="C22" t="n">
-        <v>504.9992300678381</v>
+        <v>509.1978227118675</v>
       </c>
       <c r="D22" t="n">
-        <v>424.4956352298461</v>
+        <v>427.994462433204</v>
       </c>
       <c r="E22" t="n">
-        <v>346.1955862217968</v>
+        <v>348.994647984483</v>
       </c>
       <c r="F22" t="n">
-        <v>268.9186832982301</v>
+        <v>271.0179796202448</v>
       </c>
       <c r="G22" t="n">
-        <v>170.8288912472928</v>
+        <v>172.2284221286359</v>
       </c>
       <c r="H22" t="n">
-        <v>94.22474903949434</v>
+        <v>94.9245144801659</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5914,46 +5914,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>649.6102262754171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>993.7672718749661</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1335.175648580831</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1634.505247501244</v>
+        <v>1645.701494551989</v>
       </c>
       <c r="P22" t="n">
-        <v>1867.112747934904</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q22" t="n">
-        <v>1944.723044087418</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R22" t="n">
-        <v>1924.50563141929</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S22" t="n">
-        <v>1802.43279182046</v>
+        <v>1812.229507989862</v>
       </c>
       <c r="T22" t="n">
-        <v>1650.27922096433</v>
+        <v>1659.37617169306</v>
       </c>
       <c r="U22" t="n">
-        <v>1430.789398664317</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V22" t="n">
-        <v>1245.717955032774</v>
+        <v>1253.415374880161</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.913829570157</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>867.5373232464835</v>
+        <v>873.8352122125277</v>
       </c>
       <c r="Y22" t="n">
-        <v>716.3577886772972</v>
+        <v>721.9559122026698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1893.794669610086</v>
+        <v>1898.193195237163</v>
       </c>
       <c r="C23" t="n">
-        <v>1594.445197244018</v>
+        <v>1598.143957430423</v>
       </c>
       <c r="D23" t="n">
-        <v>1305.792543211611</v>
+        <v>1308.791537957345</v>
       </c>
       <c r="E23" t="n">
-        <v>989.6173351877103</v>
+        <v>991.9165644927734</v>
       </c>
       <c r="F23" t="n">
-        <v>648.2444749724464</v>
+        <v>649.8439388368383</v>
       </c>
       <c r="G23" t="n">
-        <v>302.7850693917867</v>
+        <v>303.6847678155073</v>
       </c>
       <c r="H23" t="n">
-        <v>74.8145135748976</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="I23" t="n">
-        <v>74.8145135748976</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="J23" t="n">
-        <v>263.693644533923</v>
+        <v>361.9270325896005</v>
       </c>
       <c r="K23" t="n">
-        <v>597.5130182237694</v>
+        <v>695.746406279447</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.547231472178</v>
+        <v>1146.780619527856</v>
       </c>
       <c r="M23" t="n">
-        <v>1582.079136144103</v>
+        <v>1680.31252419978</v>
       </c>
       <c r="N23" t="n">
-        <v>2128.857953202885</v>
+        <v>2227.091341258563</v>
       </c>
       <c r="O23" t="n">
-        <v>2631.830424082222</v>
+        <v>2730.0638121379</v>
       </c>
       <c r="P23" t="n">
-        <v>3345.185511529168</v>
+        <v>3443.418899584846</v>
       </c>
       <c r="Q23" t="n">
-        <v>3681.708612188077</v>
+        <v>3691.705261340528</v>
       </c>
       <c r="R23" t="n">
-        <v>3740.72567874488</v>
+        <v>3750.722327897331</v>
       </c>
       <c r="S23" t="n">
-        <v>3700.048054846319</v>
+        <v>3709.344938558098</v>
       </c>
       <c r="T23" t="n">
-        <v>3563.683351804885</v>
+        <v>3572.280470075992</v>
       </c>
       <c r="U23" t="n">
-        <v>3379.765919653066</v>
+        <v>3387.6632724835</v>
       </c>
       <c r="V23" t="n">
-        <v>3118.316076883839</v>
+        <v>3125.513664273602</v>
       </c>
       <c r="W23" t="n">
-        <v>2835.160466188068</v>
+        <v>2841.65828813716</v>
       </c>
       <c r="X23" t="n">
-        <v>2531.307752501332</v>
+        <v>2537.105809009752</v>
       </c>
       <c r="Y23" t="n">
-        <v>2210.781465099864</v>
+        <v>2215.879756167612</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.8462516238229</v>
+        <v>950.0461846068717</v>
       </c>
       <c r="C24" t="n">
-        <v>775.3932223426959</v>
+        <v>775.5931553257448</v>
       </c>
       <c r="D24" t="n">
-        <v>626.4588126814447</v>
+        <v>626.6587456644935</v>
       </c>
       <c r="E24" t="n">
-        <v>467.2213576759891</v>
+        <v>467.421290659038</v>
       </c>
       <c r="F24" t="n">
-        <v>320.6867997028741</v>
+        <v>320.886732685923</v>
       </c>
       <c r="G24" t="n">
-        <v>184.3236995354921</v>
+        <v>184.5236325185411</v>
       </c>
       <c r="H24" t="n">
-        <v>93.82180517335965</v>
+        <v>94.02173815640862</v>
       </c>
       <c r="I24" t="n">
-        <v>74.8145135748976</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="J24" t="n">
-        <v>168.4917830655149</v>
+        <v>168.6917160485639</v>
       </c>
       <c r="K24" t="n">
-        <v>406.7559820458621</v>
+        <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
-        <v>773.4541423585274</v>
+        <v>773.6540753415765</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.730467580843</v>
+        <v>1220.930400563892</v>
       </c>
       <c r="N24" t="n">
-        <v>1694.253511135298</v>
+        <v>1694.453444118347</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.214790553352</v>
+        <v>2105.414723536402</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.714382029455</v>
+        <v>2415.914315012505</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.355939676055</v>
+        <v>2573.555872659104</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.211586268571</v>
+        <v>2573.41151925162</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.773699762051</v>
+        <v>2443.9736327451</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.130699439906</v>
+        <v>2251.330632422955</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.062852574322</v>
+        <v>2023.262785557371</v>
       </c>
       <c r="V24" t="n">
-        <v>1787.910744342579</v>
+        <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.673387614378</v>
+        <v>1533.873320597427</v>
       </c>
       <c r="X24" t="n">
-        <v>1325.821887408845</v>
+        <v>1326.021820391894</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.061588643891</v>
+        <v>1118.26152162694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.6247655641158</v>
+        <v>617.7230566318655</v>
       </c>
       <c r="C25" t="n">
-        <v>513.3016272105526</v>
+        <v>517.7001528376308</v>
       </c>
       <c r="D25" t="n">
-        <v>432.7980323725606</v>
+        <v>436.4967925589672</v>
       </c>
       <c r="E25" t="n">
-        <v>354.4979833645111</v>
+        <v>357.4969781102462</v>
       </c>
       <c r="F25" t="n">
-        <v>277.2210804409444</v>
+        <v>279.520309746008</v>
       </c>
       <c r="G25" t="n">
-        <v>179.1312883900071</v>
+        <v>180.7307522543991</v>
       </c>
       <c r="H25" t="n">
-        <v>102.5271461822086</v>
+        <v>103.4268446059291</v>
       </c>
       <c r="I25" t="n">
-        <v>74.8145135748976</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="J25" t="n">
-        <v>137.3656420207595</v>
+        <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>341.3528249696358</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>657.9126234181319</v>
+        <v>640.6840604022547</v>
       </c>
       <c r="M25" t="n">
-        <v>1002.069669017681</v>
+        <v>1013.465849051475</v>
       </c>
       <c r="N25" t="n">
-        <v>1343.478045723546</v>
+        <v>1354.874225757339</v>
       </c>
       <c r="O25" t="n">
-        <v>1642.807644643959</v>
+        <v>1654.203824677753</v>
       </c>
       <c r="P25" t="n">
-        <v>1875.415145077618</v>
+        <v>1886.811325111412</v>
       </c>
       <c r="Q25" t="n">
-        <v>1953.025441230133</v>
+        <v>1964.421621263927</v>
       </c>
       <c r="R25" t="n">
-        <v>1932.808028562005</v>
+        <v>1943.504443155127</v>
       </c>
       <c r="S25" t="n">
-        <v>1810.735188963175</v>
+        <v>1820.731838115626</v>
       </c>
       <c r="T25" t="n">
-        <v>1658.581618107045</v>
+        <v>1667.878501818824</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.091795807032</v>
+        <v>1447.688914078139</v>
       </c>
       <c r="V25" t="n">
-        <v>1254.020352175489</v>
+        <v>1261.917705005925</v>
       </c>
       <c r="W25" t="n">
-        <v>1034.216226712872</v>
+        <v>1041.413814102636</v>
       </c>
       <c r="X25" t="n">
-        <v>875.8397203891983</v>
+        <v>882.337542338291</v>
       </c>
       <c r="Y25" t="n">
-        <v>724.6601858200119</v>
+        <v>730.458242328433</v>
       </c>
     </row>
     <row r="26">
@@ -6206,61 +6206,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K26" t="n">
-        <v>810.8729904741863</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1261.907203722595</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M26" t="n">
-        <v>2240.457506552424</v>
+        <v>2076.721146931701</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611206</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490543</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,52 +6449,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6604,31 +6604,31 @@
         <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557148</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455613</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,22 +6935,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6965,22 +6965,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.7336441225989</v>
+        <v>500.9308303909361</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685353</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300429</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214931</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>234.5635189974261</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
@@ -7126,19 +7126,19 @@
         <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1233.58015894186</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>978.8956707359733</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>788.1499352728561</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X37" t="n">
-        <v>658.831818948682</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789952</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307332</v>
@@ -7166,10 +7166,10 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.564101365071</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110075</v>
+        <v>383.4688957685353</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725152</v>
+        <v>332.0236909300429</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639654</v>
+        <v>282.7820319214931</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398985</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552289</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>877.980392515328</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911541</v>
+        <v>757.5032535225254</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214673</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1758.61928571619</v>
+        <v>1820.70792253502</v>
       </c>
       <c r="C41" t="n">
-        <v>1468.49471621536</v>
+        <v>1524.430853405977</v>
       </c>
       <c r="D41" t="n">
-        <v>1189.066965048193</v>
+        <v>1238.850602610596</v>
       </c>
       <c r="E41" t="n">
-        <v>882.1166598895309</v>
+        <v>925.7477978237201</v>
       </c>
       <c r="F41" t="n">
-        <v>549.9687025395059</v>
+        <v>587.4473408454814</v>
       </c>
       <c r="G41" t="n">
-        <v>213.7341998240848</v>
+        <v>291.4102690120474</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,52 +7409,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3198.466021432975</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3198.466021432975</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>2946.241081528987</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W41" t="n">
-        <v>2672.310373698455</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2377.682562876958</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>2066.381178340729</v>
+        <v>2134.622314787773</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>539.7480483647297</v>
+        <v>582.8155457622254</v>
       </c>
       <c r="C43" t="n">
-        <v>449.6498128764053</v>
+        <v>486.5648106456873</v>
       </c>
       <c r="D43" t="n">
-        <v>378.3711209036521</v>
+        <v>409.1336190447204</v>
       </c>
       <c r="E43" t="n">
-        <v>309.2959747608415</v>
+        <v>333.9059732736962</v>
       </c>
       <c r="F43" t="n">
-        <v>241.2439747025137</v>
+        <v>259.7014735871547</v>
       </c>
       <c r="G43" t="n">
-        <v>152.3790855168152</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H43" t="n">
-        <v>84.99984617425552</v>
+        <v>91.1523458024692</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1916.302038285603</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1803.454101552012</v>
+        <v>1791.149102295585</v>
       </c>
       <c r="T43" t="n">
-        <v>1609.193431155808</v>
+        <v>1642.06793467648</v>
       </c>
       <c r="U43" t="n">
-        <v>1320.090564281452</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V43" t="n">
-        <v>1144.244023515147</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>933.6648009177692</v>
+        <v>995.1897971999058</v>
       </c>
       <c r="X43" t="n">
-        <v>784.5131974593344</v>
+        <v>839.8856941132574</v>
       </c>
       <c r="Y43" t="n">
-        <v>642.5585657553869</v>
+        <v>691.7785627810962</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1638.660873261999</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C44" t="n">
-        <v>1343.083569573628</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D44" t="n">
-        <v>1058.203084218918</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="E44" t="n">
-        <v>745.8000448727139</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="F44" t="n">
-        <v>408.1993533351464</v>
+        <v>583.0962614679138</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>240.7092591242795</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,13 +7646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3193.013287245433</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.771279916495</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2848.093605824965</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2568.710163806891</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.629618797851</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
-        <v>1951.87550007408</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7731,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.917187677524</v>
+        <v>582.8155457622252</v>
       </c>
       <c r="C46" t="n">
-        <v>482.3662180016576</v>
+        <v>486.5648106456871</v>
       </c>
       <c r="D46" t="n">
-        <v>405.6347918413624</v>
+        <v>409.1336190447203</v>
       </c>
       <c r="E46" t="n">
-        <v>331.1069115110097</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F46" t="n">
-        <v>257.6021772651399</v>
+        <v>259.7014735871546</v>
       </c>
       <c r="G46" t="n">
-        <v>163.2845538918993</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H46" t="n">
-        <v>90.45258036179759</v>
+        <v>91.15234580246917</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.849304098061</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S46" t="n">
-        <v>1792.548633176928</v>
+        <v>1791.149102295585</v>
       </c>
       <c r="T46" t="n">
-        <v>1601.241028154272</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U46" t="n">
-        <v>1385.523374531956</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V46" t="n">
-        <v>1204.22409957811</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W46" t="n">
-        <v>988.1921427931896</v>
+        <v>995.1897971999056</v>
       </c>
       <c r="X46" t="n">
-        <v>833.5878051472127</v>
+        <v>839.8856941132572</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.1804392557232</v>
+        <v>691.778562781096</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>160.5796298673116</v>
+        <v>161.2833466331805</v>
       </c>
       <c r="K8" t="n">
-        <v>189.4162106649758</v>
+        <v>190.4708996772604</v>
       </c>
       <c r="L8" t="n">
-        <v>197.7130517297714</v>
+        <v>199.0214867114925</v>
       </c>
       <c r="M8" t="n">
-        <v>188.0045345244003</v>
+        <v>189.4604205499956</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3862319418229</v>
+        <v>187.8656757253943</v>
       </c>
       <c r="O8" t="n">
-        <v>189.4691943873892</v>
+        <v>190.8661912001291</v>
       </c>
       <c r="P8" t="n">
-        <v>196.5570697020269</v>
+        <v>197.7493741610369</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.2655135228385</v>
+        <v>197.1608845168174</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>114.6480536875609</v>
+        <v>115.0671825723699</v>
       </c>
       <c r="K9" t="n">
-        <v>117.0075172264486</v>
+        <v>117.7238752484538</v>
       </c>
       <c r="L9" t="n">
-        <v>110.5406009241742</v>
+        <v>111.5038326888309</v>
       </c>
       <c r="M9" t="n">
-        <v>109.4432753220024</v>
+        <v>110.5673213586496</v>
       </c>
       <c r="N9" t="n">
-        <v>97.78572637756312</v>
+        <v>98.939522568097</v>
       </c>
       <c r="O9" t="n">
-        <v>111.8990732175955</v>
+        <v>112.9545713195515</v>
       </c>
       <c r="P9" t="n">
-        <v>109.3372211943633</v>
+        <v>110.1843514755394</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.512467555039</v>
+        <v>124.0787517137819</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>118.8033207046204</v>
+        <v>119.3562654747612</v>
       </c>
       <c r="M10" t="n">
-        <v>121.9702492644926</v>
+        <v>122.5532519960284</v>
       </c>
       <c r="N10" t="n">
-        <v>111.1331744994017</v>
+        <v>111.7023147290568</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1677457096847</v>
+        <v>123.6934388297866</v>
       </c>
       <c r="P10" t="n">
-        <v>124.6458006376689</v>
+        <v>125.0956219182089</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.02369199255401</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.12801909416865</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>40.02214132148703</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.3902622431533</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>231.1066821161363</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>21.13839585591461</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>108.735493551573</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665423</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0615996526113</v>
+        <v>15.06989098845859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>313.106111847757</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.73550625764042</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>60.13111362637083</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>128.6975697661684</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>10.22887645342393</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866672</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>69.75045508965552</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.27084765957548</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>103.6430933919536</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>258.8353443415346</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>69.75045508965525</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>337.9591316131111</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>64.79015377995351</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45.88643120509801</v>
       </c>
       <c r="H41" t="n">
-        <v>70.80833386415138</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.13819382298912</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>172.9456039937153</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="42">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>221.9564032678004</v>
+        <v>50.19399978889015</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>36.53640066865576</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97422358373315</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>916201.9489443705</v>
+        <v>916783.8999417509</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>768235.3297719029</v>
+        <v>777339.8331551015</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777339.8331551016</v>
+        <v>777339.8331551017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801791.7500122543</v>
+        <v>801019.7295912406</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801791.7500122542</v>
+        <v>801019.7295912406</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>851023.2210619737</v>
+        <v>851436.7612323973</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>864121.1257145655</v>
+        <v>864121.1257145654</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>833850.5931295422</v>
+        <v>833850.5931295423</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811969.179447746</v>
+        <v>805181.3973179217</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>805953.4177389351</v>
+        <v>805181.3973179217</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377788</v>
+      </c>
+      <c r="C2" t="n">
         <v>614457.2540377787</v>
       </c>
-      <c r="C2" t="n">
-        <v>614457.2540377789</v>
-      </c>
       <c r="D2" t="n">
-        <v>614471.6499681715</v>
+        <v>614471.1549754217</v>
       </c>
       <c r="E2" t="n">
-        <v>566569.879879983</v>
+        <v>573398.2574173823</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.2574173828</v>
+        <v>573398.2574173817</v>
       </c>
       <c r="G2" t="n">
-        <v>591737.195060247</v>
+        <v>591158.1797444858</v>
       </c>
       <c r="H2" t="n">
-        <v>591737.1950602472</v>
+        <v>591158.179744486</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982133</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="J2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="K2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="O2" t="n">
-        <v>599370.2671368654</v>
+        <v>594279.4305394975</v>
       </c>
       <c r="P2" t="n">
-        <v>594858.445855257</v>
+        <v>594279.4305394978</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51370.31804710829</v>
+        <v>49603.9900426511</v>
       </c>
       <c r="E3" t="n">
-        <v>1108839.04121762</v>
+        <v>1114814.601112465</v>
       </c>
       <c r="F3" t="n">
-        <v>4318.565476533297</v>
+        <v>5.264764695311896e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>17553.42200800623</v>
+        <v>16999.20777899431</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27597.27188234614</v>
+        <v>28261.85161716342</v>
       </c>
       <c r="J3" t="n">
-        <v>36418.56349442001</v>
+        <v>40637.45238225418</v>
       </c>
       <c r="K3" t="n">
-        <v>4318.565476533308</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17553.42200800627</v>
+        <v>16999.2077789943</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22759808821138e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>438261.1346535992</v>
+        <v>438929.2150975099</v>
       </c>
       <c r="E4" t="n">
-        <v>55445.45548108594</v>
+        <v>60655.3332736478</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364777</v>
+        <v>60655.33327364775</v>
       </c>
       <c r="G4" t="n">
-        <v>74501.14348356618</v>
+        <v>74063.98968944923</v>
       </c>
       <c r="H4" t="n">
-        <v>74501.14348356613</v>
+        <v>74063.98968944926</v>
       </c>
       <c r="I4" t="n">
-        <v>91722.83606723321</v>
+        <v>91700.40398688393</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462828</v>
+        <v>91012.35309462823</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462828</v>
+        <v>91012.35309462826</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462828</v>
+        <v>91012.35309462823</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="N4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="O4" t="n">
-        <v>80304.65238673764</v>
+        <v>76430.40983090377</v>
       </c>
       <c r="P4" t="n">
-        <v>76871.0536688846</v>
+        <v>76430.40983090378</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34935.23034400064</v>
+        <v>34890.26850253475</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.67147047342</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>80100.11661527061</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="H5" t="n">
-        <v>80100.1166152706</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="I5" t="n">
-        <v>86409.93844373338</v>
+        <v>86503.64721582712</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,19 +26497,19 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>80867.88969065857</v>
+        <v>80355.82754432673</v>
       </c>
       <c r="P5" t="n">
-        <v>80414.06783935023</v>
+        <v>80355.82754432673</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123054.2932122412</v>
+        <v>123049.8796343732</v>
       </c>
       <c r="C6" t="n">
-        <v>123054.2932122415</v>
+        <v>123049.8796343731</v>
       </c>
       <c r="D6" t="n">
-        <v>89904.96692346338</v>
+        <v>91043.3140913167</v>
       </c>
       <c r="E6" t="n">
-        <v>-675516.2882891961</v>
+        <v>-680468.4471904488</v>
       </c>
       <c r="F6" t="n">
-        <v>430168.86534542</v>
+        <v>434346.1539220155</v>
       </c>
       <c r="G6" t="n">
-        <v>419582.5129534039</v>
+        <v>419971.0287969494</v>
       </c>
       <c r="H6" t="n">
-        <v>437135.9349614105</v>
+        <v>436970.236575944</v>
       </c>
       <c r="I6" t="n">
-        <v>410051.2810049006</v>
+        <v>409315.4245783379</v>
       </c>
       <c r="J6" t="n">
-        <v>398972.4691343583</v>
+        <v>394753.5802465241</v>
       </c>
       <c r="K6" t="n">
-        <v>431072.4671522451</v>
+        <v>435391.0326287782</v>
       </c>
       <c r="L6" t="n">
-        <v>417837.6106207722</v>
+        <v>418391.8248497837</v>
       </c>
       <c r="M6" t="n">
-        <v>238300.787216044</v>
+        <v>238300.7872160441</v>
       </c>
       <c r="N6" t="n">
-        <v>440468.8872087694</v>
+        <v>440468.887208769</v>
       </c>
       <c r="O6" t="n">
-        <v>438197.7250594692</v>
+        <v>437421.520174738</v>
       </c>
       <c r="P6" t="n">
-        <v>437573.3243470221</v>
+        <v>437421.5201747383</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G2" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H2" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I2" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="P2" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.98304330278147</v>
+        <v>57.92057351076828</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>935.18141968622</v>
+        <v>937.6805819743327</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>5.398206845666621</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.94177751000779</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.63515226291824</v>
+        <v>25.7261268948497</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666635</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.94177751000784</v>
+        <v>21.24900972374287</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.98304330278147</v>
+        <v>57.92057351076828</v>
       </c>
       <c r="E3" t="n">
-        <v>1029.793657290517</v>
+        <v>1031.85612708253</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.979897769226745e-14</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.7799642839271</v>
+        <v>106.2791265720399</v>
       </c>
       <c r="J4" t="n">
-        <v>79.15504152239464</v>
+        <v>76.65587923428177</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666621</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.94177751000779</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.63515226291824</v>
+        <v>25.7261268948497</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0052489811958</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.1794221254592</v>
+        <v>201.4990738507119</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.7217416843925</v>
+        <v>135.2425723098098</v>
       </c>
       <c r="S8" t="n">
-        <v>203.5251405439855</v>
+        <v>203.7140793596056</v>
       </c>
       <c r="T8" t="n">
-        <v>222.0402685709337</v>
+        <v>222.0765638936052</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3263618788346</v>
+        <v>251.3270251857024</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.214497032333</v>
+        <v>137.218933288112</v>
       </c>
       <c r="H9" t="n">
-        <v>110.9893813935462</v>
+        <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>84.9544923804072</v>
+        <v>85.10723188858931</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.14726848288677</v>
+        <v>92.42270548643147</v>
       </c>
       <c r="S9" t="n">
-        <v>169.2866787605616</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6446870269418</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9328939144697</v>
+        <v>225.9331857734025</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.882813214798</v>
+        <v>167.8865324226197</v>
       </c>
       <c r="H10" t="n">
-        <v>161.2654771574376</v>
+        <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.1976239888058</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.71183375985751</v>
+        <v>85.97478175284908</v>
       </c>
       <c r="K10" t="n">
-        <v>9.702552589660772</v>
+        <v>10.13465691657763</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.10460371297438</v>
+        <v>77.41603665156838</v>
       </c>
       <c r="R10" t="n">
-        <v>172.4298482267505</v>
+        <v>172.5970773348046</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1315571515389</v>
+        <v>222.1963728005765</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4834249962765</v>
+        <v>227.499316156969</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3131293850185</v>
+        <v>286.3133322508997</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>17.60454141305539</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>28.91388186835393</v>
       </c>
       <c r="R19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="S19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.91691412860035</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>17.60454141305615</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835439</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="S22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.9169141286003</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J25" t="n">
-        <v>17.60454141305686</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835451</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="S25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.91691412860025</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859085</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30156,7 +30156,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>46.7252144056539</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>97.68472022810489</v>
@@ -30198,10 +30198,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>46.72521440565396</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
         <v>97.68472022810489</v>
@@ -30210,7 +30210,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565393</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371108</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="V41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="X41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="S43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T43" t="n">
-        <v>27.23088558392703</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>40.54593709771353</v>
       </c>
       <c r="V43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="X43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.04956796518671</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="C44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="D44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="E44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="F44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="G44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="H44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="T44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="U44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="V44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="W44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="X44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="C46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="D46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="E46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="F46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="G46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="H46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="I46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="S46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="T46" t="n">
-        <v>30.15442030374007</v>
+        <v>40.54593709771302</v>
       </c>
       <c r="U46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="V46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="W46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="X46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.65136111952008</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2411378625237444</v>
+        <v>0.2328465266764552</v>
       </c>
       <c r="H8" t="n">
-        <v>2.469553134571298</v>
+        <v>2.384639491325248</v>
       </c>
       <c r="I8" t="n">
-        <v>9.296467444946666</v>
+        <v>8.976815719694049</v>
       </c>
       <c r="J8" t="n">
-        <v>20.46627465937467</v>
+        <v>19.76255789350581</v>
       </c>
       <c r="K8" t="n">
-        <v>30.67364038000478</v>
+        <v>29.61895136772016</v>
       </c>
       <c r="L8" t="n">
-        <v>38.05336324021583</v>
+        <v>36.74492825849474</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34169870287246</v>
+        <v>40.88581267727714</v>
       </c>
       <c r="N8" t="n">
-        <v>43.02683165476806</v>
+        <v>41.54738787119663</v>
       </c>
       <c r="O8" t="n">
-        <v>40.62901703429758</v>
+        <v>39.23202022155763</v>
       </c>
       <c r="P8" t="n">
-        <v>34.67592605324263</v>
+        <v>33.48362159423263</v>
       </c>
       <c r="Q8" t="n">
-        <v>26.04017635161102</v>
+        <v>25.14480535763207</v>
       </c>
       <c r="R8" t="n">
-        <v>15.14737625675717</v>
+        <v>14.62654563133989</v>
       </c>
       <c r="S8" t="n">
-        <v>5.494929042259831</v>
+        <v>5.305990226639729</v>
       </c>
       <c r="T8" t="n">
-        <v>1.055580993197692</v>
+        <v>1.019285670526183</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01929102900189955</v>
+        <v>0.01862772213411641</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1290201308776809</v>
+        <v>0.1245838750986337</v>
       </c>
       <c r="H9" t="n">
-        <v>1.246062842950234</v>
+        <v>1.203217951610488</v>
       </c>
       <c r="I9" t="n">
-        <v>4.442140471007874</v>
+        <v>4.289400962825765</v>
       </c>
       <c r="J9" t="n">
-        <v>12.18957297910581</v>
+        <v>11.77044409429679</v>
       </c>
       <c r="K9" t="n">
-        <v>20.83392174791043</v>
+        <v>20.11756372590525</v>
       </c>
       <c r="L9" t="n">
-        <v>28.01377885569997</v>
+        <v>27.05054709104325</v>
       </c>
       <c r="M9" t="n">
-        <v>32.6907586000159</v>
+        <v>31.56671256336871</v>
       </c>
       <c r="N9" t="n">
-        <v>33.55598570577018</v>
+        <v>32.40218951523631</v>
       </c>
       <c r="O9" t="n">
-        <v>30.69717122684893</v>
+        <v>29.64167312489289</v>
       </c>
       <c r="P9" t="n">
-        <v>24.63718621996698</v>
+        <v>23.79005593879085</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.46930653098257</v>
+        <v>15.90302237223962</v>
       </c>
       <c r="R9" t="n">
-        <v>8.010565669756366</v>
+        <v>7.735128666211661</v>
       </c>
       <c r="S9" t="n">
-        <v>2.39649234327622</v>
+        <v>2.314090837906637</v>
       </c>
       <c r="T9" t="n">
-        <v>0.520041667879775</v>
+        <v>0.5021604439282644</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008488166505110589</v>
+        <v>0.008196307572278533</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1081661436607535</v>
+        <v>0.1044469358390903</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9616953500019724</v>
+        <v>0.9286282113693674</v>
       </c>
       <c r="I10" t="n">
-        <v>3.252850938452478</v>
+        <v>3.141004215961008</v>
       </c>
       <c r="J10" t="n">
-        <v>7.647346356815269</v>
+        <v>7.384398363823686</v>
       </c>
       <c r="K10" t="n">
-        <v>12.56693923622208</v>
+        <v>12.13483490930522</v>
       </c>
       <c r="L10" t="n">
-        <v>16.08135557661784</v>
+        <v>15.52841080647712</v>
       </c>
       <c r="M10" t="n">
-        <v>16.95553468311247</v>
+        <v>16.37253195157668</v>
       </c>
       <c r="N10" t="n">
-        <v>16.55236996583149</v>
+        <v>15.98322973617644</v>
       </c>
       <c r="O10" t="n">
-        <v>15.28879274215814</v>
+        <v>14.76309962205615</v>
       </c>
       <c r="P10" t="n">
-        <v>13.08220341147876</v>
+        <v>12.6323821309387</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.057439538720001</v>
+        <v>8.746006600126011</v>
       </c>
       <c r="R10" t="n">
-        <v>4.863543150418968</v>
+        <v>4.696314042364915</v>
       </c>
       <c r="S10" t="n">
-        <v>1.885040885433312</v>
+        <v>1.820225236395783</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4621644320050374</v>
+        <v>0.4462732713124767</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005899971472404741</v>
+        <v>0.005697105591223116</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180364</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>252.5616125581658</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>107.3081204062476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>337.3619135832542</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>331.2670120909942</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>289.8106929612666</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36376,7 +36376,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>339.9223238978881</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.18295802612308</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618383</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2134278768875</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>673.4432631313726</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>770.0277979463631</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>80.75159439813939</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>647.6566093817997</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794538</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412307</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597689</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
